--- a/data/England_crop_areas.xlsx
+++ b/data/England_crop_areas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://naturalhistorymuseum-my.sharepoint.com/personal/a_varah_nhm_ac_uk/Documents/_Projects/Resistance_Management/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexavarah/Documents/Work/_Projects/Resistance_Management/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="509" documentId="8_{D81C4D4D-973A-4589-989C-690F2C3DCD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{523F566F-0FC9-4AE1-B294-3C9375F5CD03}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B359A63-FC5C-FD44-940C-5D07F1886EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{74881880-3C11-4A5C-9400-2CB65FF5A0E5}"/>
+    <workbookView xWindow="500" yWindow="760" windowWidth="37480" windowHeight="18280" xr2:uid="{74881880-3C11-4A5C-9400-2CB65FF5A0E5}"/>
   </bookViews>
   <sheets>
     <sheet name="county cereal areas 2021" sheetId="4" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="151">
   <si>
     <t>source</t>
   </si>
@@ -522,6 +522,9 @@
   </si>
   <si>
     <t>South East</t>
+  </si>
+  <si>
+    <t>Leicestershire CC and Rutland</t>
   </si>
 </sst>
 </file>
@@ -1038,21 +1041,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C313EDAA-101B-4337-BE68-CAC99479B592}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -1066,7 +1069,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1080,7 +1083,7 @@
         <v>82458.345652892385</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1094,7 +1097,7 @@
         <v>38591.500680607482</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1108,7 +1111,7 @@
         <v>132449.55576514461</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -1122,7 +1125,7 @@
         <v>33548.772230790011</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>1161.2766515899998</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -1150,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1164,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1178,7 +1181,7 @@
         <v>46994.166680205541</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1192,7 +1195,7 @@
         <v>20137.610632690001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1206,7 +1209,7 @@
         <v>62629.013495389998</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1220,199 +1223,213 @@
         <v>56843.493402990011</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>145</v>
       </c>
       <c r="D13" s="20">
+        <v>98845</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="20">
         <v>272520.29679906211</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B15" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C15" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D15" s="20">
         <v>74588.766228700042</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="20">
-        <v>14263.350772520002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>148</v>
       </c>
       <c r="D16" s="20">
-        <v>134370.25295295048</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>14263.350772520002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>148</v>
       </c>
       <c r="D17" s="20">
-        <v>8206.4845754400012</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>134370.25295295048</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>148</v>
       </c>
       <c r="D18" s="20">
-        <v>43255.720174470014</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8206.4845754400012</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>148</v>
       </c>
       <c r="D19" s="20">
-        <v>67899.034067631597</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>43255.720174470014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>148</v>
       </c>
       <c r="D20" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>67899.034067631597</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>148</v>
       </c>
       <c r="D21" s="20">
-        <v>26179.248381710018</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>148</v>
       </c>
       <c r="D22" s="20">
+        <v>26179.248381710018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="20">
         <v>30103.106904609569</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B24" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="20">
-        <v>39040.924929360015</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>141</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>149</v>
       </c>
       <c r="D24" s="20">
-        <v>14203.603880520002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>39040.924929360015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>149</v>
       </c>
       <c r="D25" s="20">
-        <v>46677.826350357784</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>14203.603880520002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>149</v>
       </c>
       <c r="D26" s="20">
+        <v>46677.826350357784</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="20">
         <v>112055.75136556993</v>
       </c>
     </row>
@@ -1426,20 +1443,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34E809E-5898-46BB-B957-47E090BBA709}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -1453,7 +1470,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1467,7 +1484,7 @@
         <v>109633.31744849229</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1481,7 +1498,7 @@
         <v>629.2592720173551</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1495,7 +1512,7 @@
         <v>47010.868187671673</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1509,7 +1526,7 @@
         <v>22437.897925202426</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1523,7 +1540,7 @@
         <v>13943.557602621328</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1537,7 +1554,7 @@
         <v>48243.988987817684</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1551,7 +1568,7 @@
         <v>11551.396519514767</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1565,7 +1582,7 @@
         <v>24272.300901666018</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -1579,7 +1596,7 @@
         <v>4932.2112457357725</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -1593,7 +1610,7 @@
         <v>15760.520194385674</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>120</v>
       </c>
@@ -1607,7 +1624,7 @@
         <v>6337.3189688585207</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -1621,7 +1638,7 @@
         <v>835.81043218665934</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1635,7 +1652,7 @@
         <v>3735.45968190131</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1649,7 +1666,7 @@
         <v>6609.4152511689053</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1663,7 +1680,7 @@
         <v>15237.688079777286</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1677,7 +1694,7 @@
         <v>7955.358978504436</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1691,7 +1708,7 @@
         <v>14471.916051323957</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1705,7 +1722,7 @@
         <v>5495.9776743957618</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1719,7 +1736,7 @@
         <v>10969.43441941769</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1733,7 +1750,7 @@
         <v>70540.139655167921</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1747,7 +1764,7 @@
         <v>43102.258874060113</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1761,7 +1778,7 @@
         <v>30049.503277665379</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -1775,7 +1792,7 @@
         <v>38805.027334614133</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1789,7 +1806,7 @@
         <v>47530.695925090105</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1803,7 +1820,7 @@
         <v>18801.341874962025</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -1817,7 +1834,7 @@
         <v>16346.625261007068</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1831,7 +1848,7 @@
         <v>7689.4803519777925</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1845,7 +1862,7 @@
         <v>5829.2096048256199</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1859,7 +1876,7 @@
         <v>20953.707712445557</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1873,7 +1890,7 @@
         <v>1128.4778583361542</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1887,7 +1904,7 @@
         <v>2221.0450673520536</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -1901,7 +1918,7 @@
         <v>12810.196620201445</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -1915,7 +1932,7 @@
         <v>2239.4705953864022</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1929,7 +1946,7 @@
         <v>22267.195715802831</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -1943,7 +1960,7 @@
         <v>19135.415490722495</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
@@ -1957,7 +1974,7 @@
         <v>7524.3554030663308</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
@@ -1971,7 +1988,7 @@
         <v>1464.3028459878119</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
@@ -1985,7 +2002,7 @@
         <v>10116.885824237508</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>
@@ -1999,7 +2016,7 @@
         <v>29492.981239176264</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
@@ -2013,7 +2030,7 @@
         <v>6745.6472654897734</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2027,7 +2044,7 @@
         <v>12505.061518826358</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2041,7 +2058,7 @@
         <v>41845.825938500326</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2055,7 +2072,7 @@
         <v>25471.461179469643</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2069,7 +2086,7 @@
         <v>20318.622680724886</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2083,7 +2100,7 @@
         <v>39410.962378999226</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2097,7 +2114,7 @@
         <v>37276.133743300918</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -2111,7 +2128,7 @@
         <v>15675.016696309083</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -2125,7 +2142,7 @@
         <v>5026.8201075334564</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -2139,7 +2156,7 @@
         <v>32895.869130598468</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -2153,7 +2170,7 @@
         <v>37045.582451089969</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -2167,7 +2184,7 @@
         <v>50022.773708352601</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -2181,7 +2198,7 @@
         <v>19930.036472324467</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -2195,7 +2212,7 @@
         <v>19629.616091043859</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -2209,7 +2226,7 @@
         <v>399.07000000000005</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -2223,7 +2240,7 @@
         <v>18123.904354499566</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>47</v>
       </c>
@@ -2237,7 +2254,7 @@
         <v>1642.9550771723314</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>47</v>
       </c>
@@ -2251,7 +2268,7 @@
         <v>2581.6309410407739</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -2265,7 +2282,7 @@
         <v>8013.4460066261809</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -2279,7 +2296,7 @@
         <v>21597.15609833656</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>48</v>
       </c>
@@ -2293,7 +2310,7 @@
         <v>4384.8638761786242</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>48</v>
       </c>
@@ -2307,7 +2324,7 @@
         <v>463.01671607834453</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>48</v>
       </c>
@@ -2321,7 +2338,7 @@
         <v>5414.6774174447883</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>49</v>
       </c>
@@ -2335,7 +2352,7 @@
         <v>14931.210971245717</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -2349,7 +2366,7 @@
         <v>18068.082888616209</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -2363,7 +2380,7 @@
         <v>18705.425012218406</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -2394,23 +2411,23 @@
       <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="6" customWidth="1"/>
-    <col min="9" max="13" width="14.140625" style="6"/>
-    <col min="14" max="15" width="14.140625" style="1"/>
-    <col min="16" max="17" width="14.140625" style="6"/>
-    <col min="18" max="16384" width="14.140625" style="1"/>
+    <col min="4" max="4" width="19.1640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" style="6" customWidth="1"/>
+    <col min="9" max="13" width="14.1640625" style="6"/>
+    <col min="14" max="15" width="14.1640625" style="1"/>
+    <col min="16" max="17" width="14.1640625" style="6"/>
+    <col min="18" max="16384" width="14.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -2469,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2523,7 +2540,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2581,7 +2598,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2642,7 +2659,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -2703,7 +2720,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -2764,7 +2781,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
